--- a/Tables/04_BLtrimmer_results_comparing_MeltR_method_3_to_Meltwin_method_2/04_BLtrimmer_results_comparing_MeltR_method_3_to_Meltwin_method_2.xlsx
+++ b/Tables/04_BLtrimmer_results_comparing_MeltR_method_3_to_Meltwin_method_2/04_BLtrimmer_results_comparing_MeltR_method_3_to_Meltwin_method_2.xlsx
@@ -64,265 +64,265 @@
     <t xml:space="preserve">ACCGGU</t>
   </si>
   <si>
-    <t xml:space="preserve">-56.55 (-59.83 to -53.64)</t>
+    <t xml:space="preserve">-56.08 (-60.65 to -51.78)</t>
   </si>
   <si>
     <t xml:space="preserve">-53.8 (±2.9)</t>
   </si>
   <si>
-    <t xml:space="preserve">-160.03 (-170.58 to -151)</t>
+    <t xml:space="preserve">-157.92 (-172.86 to -144.17)</t>
   </si>
   <si>
     <t xml:space="preserve">-150.5 (±9.1)</t>
   </si>
   <si>
-    <t xml:space="preserve">-6.92 (-7.07 to -6.78)</t>
+    <t xml:space="preserve">-7.1 (-7.2 to -6.98)</t>
   </si>
   <si>
     <t xml:space="preserve">-7.12 (±0.06)</t>
   </si>
   <si>
-    <t xml:space="preserve">43.96 (43.2 to 44.57)</t>
+    <t xml:space="preserve">45.07 (44.06 to 45.73)</t>
   </si>
   <si>
     <t xml:space="preserve">CCAUGG</t>
   </si>
   <si>
-    <t xml:space="preserve">-59.81 (-61.28 to -58.85)</t>
+    <t xml:space="preserve">-59.97 (-61.22 to -58.83)</t>
   </si>
   <si>
     <t xml:space="preserve">-59.8 (±1)</t>
   </si>
   <si>
-    <t xml:space="preserve">-171.26 (-175.82 to -168.22)</t>
+    <t xml:space="preserve">-171.42 (-175.34 to -167.86)</t>
   </si>
   <si>
     <t xml:space="preserve">-171.9 (±3.3)</t>
   </si>
   <si>
-    <t xml:space="preserve">-6.7 (-6.75 to -6.66)</t>
+    <t xml:space="preserve">-6.8 (-6.84 to -6.77)</t>
   </si>
   <si>
     <t xml:space="preserve">-6.52 (±0.01)</t>
   </si>
   <si>
-    <t xml:space="preserve">42.38 (42.28 to 42.52)</t>
+    <t xml:space="preserve">42.93 (42.82 to 43.04)</t>
   </si>
   <si>
     <t xml:space="preserve">CGAAAGGU/ACCUUUCG</t>
   </si>
   <si>
-    <t xml:space="preserve">-67.96 (-70.05 to -66.27)</t>
+    <t xml:space="preserve">-67.41 (-69.8 to -65.87)</t>
   </si>
   <si>
     <t xml:space="preserve">-65.85 (±1.448)</t>
   </si>
   <si>
-    <t xml:space="preserve">-186.53 (-192.96 to -181.29)</t>
+    <t xml:space="preserve">-184.57 (-191.92 to -179.83)</t>
   </si>
   <si>
     <t xml:space="preserve">-180.82 (±4.495)</t>
   </si>
   <si>
-    <t xml:space="preserve">-10.11 (-10.21 to -10.01)</t>
+    <t xml:space="preserve">-10.16 (-10.27 to -10.08)</t>
   </si>
   <si>
     <t xml:space="preserve">-9.77 (±0.055)</t>
   </si>
   <si>
-    <t xml:space="preserve">54.22 (53.94 to 54.6)</t>
+    <t xml:space="preserve">54.67 (54.46 to 54.9)</t>
   </si>
   <si>
     <t xml:space="preserve">CGCGCG</t>
   </si>
   <si>
-    <t xml:space="preserve">-56.81 (-58.02 to -55.85)</t>
+    <t xml:space="preserve">-56.87 (-57.86 to -55.99)</t>
   </si>
   <si>
     <t xml:space="preserve">-52 (±3.8)</t>
   </si>
   <si>
-    <t xml:space="preserve">-157.11 (-160.73 to -154.06)</t>
+    <t xml:space="preserve">-156.87 (-159.9 to -154.13)</t>
   </si>
   <si>
     <t xml:space="preserve">-142.6 (±11.9)</t>
   </si>
   <si>
-    <t xml:space="preserve">-8.09 (-8.16 to -8)</t>
+    <t xml:space="preserve">-8.22 (-8.29 to -8.14)</t>
   </si>
   <si>
     <t xml:space="preserve">-7.72 (±0.16)</t>
   </si>
   <si>
-    <t xml:space="preserve">50.73 (50.31 to 51)</t>
+    <t xml:space="preserve">51.51 (51.16 to 51.82)</t>
   </si>
   <si>
     <t xml:space="preserve">CGUUGC/GCAACG</t>
   </si>
   <si>
-    <t xml:space="preserve">-51.96 (-54.18 to -50.39)</t>
+    <t xml:space="preserve">-51.53 (-53.88 to -50.06)</t>
   </si>
   <si>
     <t xml:space="preserve">-48.17 (±1.779)</t>
   </si>
   <si>
-    <t xml:space="preserve">-143.72 (-150.77 to -138.69)</t>
+    <t xml:space="preserve">-142.01 (-149.38 to -137.4)</t>
   </si>
   <si>
     <t xml:space="preserve">-132.17 (±5.73)</t>
   </si>
   <si>
-    <t xml:space="preserve">-7.38 (-7.45 to -7.3)</t>
+    <t xml:space="preserve">-7.48 (-7.55 to -7.39)</t>
   </si>
   <si>
     <t xml:space="preserve">-7.18 (±0.024)</t>
   </si>
   <si>
-    <t xml:space="preserve">42.15 (41.72 to 42.43)</t>
+    <t xml:space="preserve">42.83 (42.36 to 43.16)</t>
   </si>
   <si>
     <t xml:space="preserve">CUGAGUC/GACUCAG</t>
   </si>
   <si>
-    <t xml:space="preserve">-63.31 (-64.04 to -62.74)</t>
+    <t xml:space="preserve">-63.41 (-64.13 to -62.89)</t>
   </si>
   <si>
     <t xml:space="preserve">-63.61 (±1.507)</t>
   </si>
   <si>
-    <t xml:space="preserve">-173.84 (-176.06 to -172.06)</t>
+    <t xml:space="preserve">-173.81 (-175.94 to -172.19)</t>
   </si>
   <si>
     <t xml:space="preserve">-175.57 (±4.712)</t>
   </si>
   <si>
-    <t xml:space="preserve">-9.39 (-9.45 to -9.36)</t>
+    <t xml:space="preserve">-9.51 (-9.57 to -9.47)</t>
   </si>
   <si>
     <t xml:space="preserve">-9.16 (±0.047)</t>
   </si>
   <si>
-    <t xml:space="preserve">51.69 (51.43 to 51.88)</t>
+    <t xml:space="preserve">52.28 (52.03 to 52.46)</t>
   </si>
   <si>
     <t xml:space="preserve">FAMCGAAAGGU/ACCUUUCGBHQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">-81.03 (-83.71 to -79.11)</t>
+    <t xml:space="preserve">-81.07 (-83.87 to -78.47)</t>
   </si>
   <si>
     <t xml:space="preserve">-81.05 (±6.734)</t>
   </si>
   <si>
-    <t xml:space="preserve">-216.68 (-224.73 to -210.93)</t>
+    <t xml:space="preserve">-216.51 (-225.09 to -208.72)</t>
   </si>
   <si>
     <t xml:space="preserve">-217.41 (±20.017)</t>
   </si>
   <si>
-    <t xml:space="preserve">-13.82 (-14.03 to -13.66)</t>
+    <t xml:space="preserve">-13.92 (-14.17 to -13.71)</t>
   </si>
   <si>
     <t xml:space="preserve">-13.62 (±0.538)</t>
   </si>
   <si>
-    <t xml:space="preserve">67.67 (67.07 to 68.19)</t>
+    <t xml:space="preserve">68.09 (67.53 to 68.6)</t>
   </si>
   <si>
     <t xml:space="preserve">FAMCGUUGC/GCAACGBHQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">-60.25 (-62 to -58.16)</t>
+    <t xml:space="preserve">-60 (-61.6 to -57.17)</t>
   </si>
   <si>
     <t xml:space="preserve">-62.23 (±3.751)</t>
   </si>
   <si>
-    <t xml:space="preserve">-160.5 (-165.69 to -154.17)</t>
+    <t xml:space="preserve">-159.32 (-164.11 to -150.79)</t>
   </si>
   <si>
     <t xml:space="preserve">-167.11 (±11.45)</t>
   </si>
   <si>
-    <t xml:space="preserve">-10.47 (-10.62 to -10.32)</t>
+    <t xml:space="preserve">-10.59 (-10.73 to -10.42)</t>
   </si>
   <si>
     <t xml:space="preserve">-10.4 (±0.207)</t>
   </si>
   <si>
-    <t xml:space="preserve">58.7 (58.4 to 58.93)</t>
+    <t xml:space="preserve">59.5 (59.21 to 59.81)</t>
   </si>
   <si>
     <t xml:space="preserve">FAMCUGAGUC/GACUCAGBHQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">-75.46 (-77.41 to -73.1)</t>
+    <t xml:space="preserve">-75.46 (-77.18 to -73.64)</t>
   </si>
   <si>
     <t xml:space="preserve">-74.63 (±6.17)</t>
   </si>
   <si>
-    <t xml:space="preserve">-199.62 (-205.3 to -192.64)</t>
+    <t xml:space="preserve">-199.19 (-204.42 to -193.8)</t>
   </si>
   <si>
     <t xml:space="preserve">-198.05 (±18.308)</t>
   </si>
   <si>
-    <t xml:space="preserve">-13.55 (-13.72 to -13.33)</t>
+    <t xml:space="preserve">-13.68 (-13.84 to -13.5)</t>
   </si>
   <si>
     <t xml:space="preserve">-13.21 (±0.508)</t>
   </si>
   <si>
-    <t xml:space="preserve">68.8 (68.45 to 69.23)</t>
+    <t xml:space="preserve">69.44 (69.06 to 69.81)</t>
   </si>
   <si>
     <t xml:space="preserve">GAUAUAUC</t>
   </si>
   <si>
-    <t xml:space="preserve">-74.09 (-78.83 to -71.81)</t>
+    <t xml:space="preserve">-72.69 (-77.24 to -71.12)</t>
   </si>
   <si>
     <t xml:space="preserve">-66 (±2.4)</t>
   </si>
   <si>
-    <t xml:space="preserve">-221.77 (-237.04 to -214.48)</t>
+    <t xml:space="preserve">-216.95 (-231.57 to -212.07)</t>
   </si>
   <si>
     <t xml:space="preserve">-195 (±7.9)</t>
   </si>
   <si>
-    <t xml:space="preserve">-5.31 (-5.34 to -5.26)</t>
+    <t xml:space="preserve">-5.4 (-5.44 to -5.35)</t>
   </si>
   <si>
     <t xml:space="preserve">-5.48 (±0.04)</t>
   </si>
   <si>
-    <t xml:space="preserve">35.46 (35.2 to 35.6)</t>
+    <t xml:space="preserve">35.84 (35.6 to 36)</t>
   </si>
   <si>
     <t xml:space="preserve">GCAAUUGC</t>
   </si>
   <si>
-    <t xml:space="preserve">-81.36 (-84.43 to -79.17)</t>
+    <t xml:space="preserve">-80.81 (-84.71 to -78.44)</t>
   </si>
   <si>
     <t xml:space="preserve">-78.1 (±1.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">-234.47 (-244.05 to -227.71)</t>
+    <t xml:space="preserve">-232.39 (-244.55 to -225.01)</t>
   </si>
   <si>
     <t xml:space="preserve">-225.7 (±5.3)</t>
   </si>
   <si>
-    <t xml:space="preserve">-8.64 (-8.75 to -8.56)</t>
+    <t xml:space="preserve">-8.73 (-8.86 to -8.64)</t>
   </si>
   <si>
     <t xml:space="preserve">-8.09 (±0.05)</t>
   </si>
   <si>
-    <t xml:space="preserve">48.71 (48.65 to 48.78)</t>
+    <t xml:space="preserve">49.19 (49.1 to 49.27)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,12 +431,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,16 +510,16 @@
         <v>45.6</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>2.10973406889241</v>
+        <v>4.14998179832545</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>2.63235870187527</v>
+        <v>4.81162051747616</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>1.10747545935062</v>
+        <v>0.281293952180035</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>1.60989496417002</v>
+        <v>1.16907466637256</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,16 +551,16 @@
         <v>41.4</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.00767176025052177</v>
+        <v>0.283877431744179</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.176779598027305</v>
+        <v>0.279622509612034</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.996727913415558</v>
+        <v>4.20420420420421</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.962010405418675</v>
+        <v>3.62860192102455</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,16 +592,16 @@
         <v>53</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1.61874141285926</v>
+        <v>2.34128770823954</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1.57720547614982</v>
+        <v>2.05260133008566</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1.88270828089605</v>
+        <v>3.9136979427998</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>1.19760479041916</v>
+        <v>3.10207114330826</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,16 +633,16 @@
         <v>49.7</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>3.69011668049908</v>
+        <v>8.94644989436943</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>4.00792494902521</v>
+        <v>9.5301699669416</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>2.04882959979864</v>
+        <v>6.27352572145547</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1.01109256896043</v>
+        <v>3.57672166781938</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,16 +674,16 @@
         <v>41.2</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>2.90759713494626</v>
+        <v>6.74022066198596</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3.19031930814894</v>
+        <v>7.17776643081188</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1.10747545935062</v>
+        <v>4.09276944065485</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.932561107293605</v>
+        <v>3.87956682137331</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,16 +715,16 @@
         <v>50.4</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.230152807515533</v>
+        <v>0.314911037631874</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.477857350917544</v>
+        <v>1.00749899822542</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1.27359677825321</v>
+        <v>3.74933047670058</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>1.26631981937764</v>
+        <v>3.66186209583171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,16 +756,16 @@
         <v>66.7</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.0153435205010326</v>
+        <v>0.0246730816678954</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.201639228999887</v>
+        <v>0.41482300884956</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1.10747545935062</v>
+        <v>2.17864923747277</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.952193972710316</v>
+        <v>2.06246754210253</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,16 +797,16 @@
         <v>57.6</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1.51900852960253</v>
+        <v>3.64885870899124</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>1.82580178587572</v>
+        <v>4.7728456330607</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.387616410772717</v>
+        <v>1.81038589804668</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>1.07980759791892</v>
+        <v>3.24508966695132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,16 +838,16 @@
         <v>67.5</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.63675610079298</v>
+        <v>1.10600306482777</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.433662451410719</v>
+        <v>0.573960326251126</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1.88270828089605</v>
+        <v>3.49572331721829</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1.27613625208599</v>
+        <v>2.83335767489411</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,16 +879,16 @@
         <v>36.1</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>6.20645404266894</v>
+        <v>9.64741509842094</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>7.39435912373568</v>
+        <v>10.6566330865396</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.941354140448029</v>
+        <v>1.47058823529412</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.628251693334643</v>
+        <v>0.72282457603558</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,34 +920,34 @@
         <v>46.9</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>2.50099384166882</v>
+        <v>3.41073563652383</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>2.42243292921785</v>
+        <v>2.9208234189788</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>3.0455575132142</v>
+        <v>7.60998810939359</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>1.77677432021204</v>
+        <v>4.7663648662712</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="0" t="n">
         <f aca="false">AVERAGE(J2:J12)</f>
-        <v>1.94932453638158</v>
+        <v>3.69221946570256</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">AVERAGE(K2:K12)</f>
-        <v>2.21275826394399</v>
+        <v>4.01803320243932</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">AVERAGE(L2:L12)</f>
-        <v>1.43468411779512</v>
+        <v>3.55274150322004</v>
       </c>
       <c r="M13" s="0" t="n">
         <f aca="false">AVERAGE(M2:M12)</f>
-        <v>1.15387704471831</v>
+        <v>2.96800024018041</v>
       </c>
     </row>
   </sheetData>
